--- a/数据整理/stocks/A股/创业板/300752-隆利科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300752-隆利科技.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -659,7 +660,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,17 +671,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -690,13 +711,103 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>003655</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信达澳银新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>25.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0759</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>4</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.62</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300752-隆利科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300752-隆利科技.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -754,7 +755,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -765,17 +766,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -785,14 +806,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.08</v>
+          <t>003655</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信达澳银新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>45.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1110</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -801,13 +844,271 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>013721</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信达澳银景气优选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0574</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013722</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信达澳银景气优选混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012005</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>信达澳银恒盛混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>31.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004890</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中邮健康文娱灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.86</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012006</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信达澳银恒盛混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>31.58</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>4</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.62</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300752-隆利科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300752-隆利科技.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,37 +464,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -504,36 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>213006</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>宝盈核心优势灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>12.37</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>78.31</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.4292</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="3">
@@ -542,36 +500,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010383</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>宝盈基础产业混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.39</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1667</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="4">
@@ -580,74 +516,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010384</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>宝盈基础产业混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.39</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0120</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>000241</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>宝盈核心优势灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>78.31</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0104</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.62</v>
       </c>
     </row>
   </sheetData>
@@ -656,6 +532,290 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003655</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信达澳银新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>45.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1110</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>013721</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信达澳银景气优选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0574</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013722</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信达澳银景气优选混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012005</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>信达澳银恒盛混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>31.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004890</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中邮健康文娱灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.86</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012006</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信达澳银恒盛混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>31.58</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -749,13 +909,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -806,36 +966,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003655</t>
+          <t>213006</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>信达澳银新财富灵活配置混合</t>
+          <t>宝盈核心优势灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>12.37</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>45.05</t>
+          <t>78.31</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1110</t>
+          <t>0.4292</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -844,36 +1004,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>013721</t>
+          <t>010383</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>信达澳银景气优选混合A</t>
+          <t>宝盈基础产业混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>5.02</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>80.55</t>
+          <t>90.39</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0574</t>
+          <t>0.1667</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -882,36 +1042,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>013722</t>
+          <t>010384</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>信达澳银景气优选混合C</t>
+          <t>宝盈基础产业混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>80.55</t>
+          <t>90.39</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0250</t>
+          <t>0.0120</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -920,196 +1080,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>012005</t>
+          <t>000241</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>信达澳银恒盛混合A</t>
+          <t>宝盈核心优势灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>31.58</t>
+          <t>78.31</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0187</t>
+          <t>0.0104</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>004890</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中邮健康文娱灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>84.86</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.97</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0171</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>012006</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>信达澳银恒盛混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>31.58</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0014</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.62</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300752-隆利科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300752-隆利科技.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>0.23</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>0.08</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>4</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.62</v>
       </c>
     </row>
@@ -532,6 +549,328 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011460</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5494</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004809</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>新疆前海联合润丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011461</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004890</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中邮健康文娱灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014246</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大摩现代服务业混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>66.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014247</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大摩现代服务业混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>66.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005935</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>新疆前海联合润丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.05</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -815,7 +1154,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -909,7 +1248,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
